--- a/job-preferences.xlsx
+++ b/job-preferences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregt\Documents\Stellaris Mods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorysakas/Coding/Stellaris Mods/GMO-Job-Preferences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235407D6-0A21-41EF-8C87-903340F941FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F23269C-06B9-A34E-A742-FE8B4069E76F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6850" yWindow="2490" windowWidth="28800" windowHeight="15560" activeTab="1" xr2:uid="{5C03B089-A446-4B5E-A457-42B39515B36D}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="13880" windowHeight="17500" activeTab="1" xr2:uid="{5C03B089-A446-4B5E-A457-42B39515B36D}"/>
   </bookViews>
   <sheets>
     <sheet name="All Jobs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
   <si>
     <t>Total</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>society research/unity</t>
+  </si>
+  <si>
+    <t>amenities</t>
+  </si>
+  <si>
+    <t>amenities/unity</t>
+  </si>
+  <si>
+    <t>unity</t>
   </si>
 </sst>
 </file>
@@ -313,13 +322,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -331,24 +334,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -402,16 +391,16 @@
   <autoFilter ref="F1:J11" xr:uid="{D56B2D8C-9312-4D3C-8DC7-7CE136528147}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{82EA18BB-2822-43A6-9CED-04E4C8A16652}" name="Traits"/>
-    <tableColumn id="4" xr3:uid="{B31E70C3-DE35-4696-97E2-326F36D33E95}" name="PC1" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{B31E70C3-DE35-4696-97E2-326F36D33E95}" name="PC1" dataDxfId="8">
       <calculatedColumnFormula>COUNTIF(JobPriorities[Positive Trait],PreferenceTraits[[#This Row],[Traits]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C54BE864-50DB-4B5F-ABBF-C66D27267D74}" name="PC2" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{C54BE864-50DB-4B5F-ABBF-C66D27267D74}" name="PC2" dataDxfId="7">
       <calculatedColumnFormula array="1">SUMPRODUCT(--(JobPriorities[Positive Trait]=PreferenceTraits[[#This Row],[Traits]]),JobPriorities[Priority])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6292CD50-1463-453B-84A7-807C2DE1DC14}" name="NC1 " dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{6292CD50-1463-453B-84A7-807C2DE1DC14}" name="NC1 " dataDxfId="6">
       <calculatedColumnFormula>COUNTIFS(JobPriorities[Negative Trait],PreferenceTraits[[#This Row],[Traits]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5E578CD5-710F-433F-9826-BE8D334411EB}" name="NC2" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{5E578CD5-710F-433F-9826-BE8D334411EB}" name="NC2" dataDxfId="5">
       <calculatedColumnFormula array="1">SUMPRODUCT(--(JobPriorities[Negative Trait]=PreferenceTraits[[#This Row],[Traits]]),JobPriorities[Priority])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -441,16 +430,16 @@
   <autoFilter ref="G1:K12" xr:uid="{D56B2D8C-9312-4D3C-8DC7-7CE136528147}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1A2D31F4-5F30-4E6D-873C-3251C5B75153}" name="Traits"/>
-    <tableColumn id="4" xr3:uid="{C7DDC703-63B8-41DB-BA50-EEA94CD1FC93}" name="PC1" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{C7DDC703-63B8-41DB-BA50-EEA94CD1FC93}" name="PC1" dataDxfId="4">
       <calculatedColumnFormula>COUNTIF(JobPriorities4[Positive Trait],PreferenceTraits5[[#This Row],[Traits]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C1F0B113-184F-43D5-A6C9-B9D4C0D67F3F}" name="PC2" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{C1F0B113-184F-43D5-A6C9-B9D4C0D67F3F}" name="PC2" dataDxfId="3">
       <calculatedColumnFormula array="1">SUMPRODUCT(--(JobPriorities4[Positive Trait]=PreferenceTraits5[[#This Row],[Traits]]),JobPriorities4[Priority])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0887A159-0A09-4082-A396-0EA54C126B5E}" name="NC1 " dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{0887A159-0A09-4082-A396-0EA54C126B5E}" name="NC1 " dataDxfId="2">
       <calculatedColumnFormula>COUNTIFS(JobPriorities4[Negative Trait],PreferenceTraits5[[#This Row],[Traits]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{42880AD5-E7B0-46CC-BA27-08F8976A4613}" name="NC2" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{42880AD5-E7B0-46CC-BA27-08F8976A4613}" name="NC2" dataDxfId="1">
       <calculatedColumnFormula array="1">SUMPRODUCT(--(JobPriorities4[Negative Trait]=PreferenceTraits5[[#This Row],[Traits]]),JobPriorities4[Priority])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -761,22 +750,22 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" customWidth="1"/>
-    <col min="9" max="9" width="6.54296875" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -805,7 +794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -836,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -866,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -896,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -926,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -956,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -986,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1016,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1076,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1128,7 +1117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1139,7 +1128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1194,7 +1183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1205,7 +1194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1227,7 +1216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1227,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1249,7 +1238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1282,7 +1271,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +1293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1315,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1326,7 +1315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1337,7 +1326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1348,7 +1337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1359,7 +1348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1367,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1375,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1383,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1391,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1399,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1407,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1404,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C40">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$F$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1438,26 +1427,26 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
-    <col min="8" max="8" width="7.54296875" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" customWidth="1"/>
-    <col min="10" max="10" width="6.54296875" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1587,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1620,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1686,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1752,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1785,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1818,12 +1807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1851,10 +1840,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
@@ -1862,10 +1854,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
       <c r="C14">
         <v>0</v>
       </c>
@@ -1873,10 +1868,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -1884,10 +1882,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2029,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
